--- a/Openair_St.Gallen_2018/Openair_St.Gallen_2018_Lineup.xlsx
+++ b/Openair_St.Gallen_2018/Openair_St.Gallen_2018_Lineup.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\c#\ownproject\OpenairLineupExtractor\OpenairLineupExtractor\Openair St.Gallen 2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\c#\ownproject\OpenairLineupExtractor\OpenairLineupExtractor\Openair_St.Gallen_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$D$62</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$D$100</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="113">
   <si>
     <t>Donnerstag</t>
   </si>
@@ -227,9 +227,6 @@
     <t>Gang Of Youths (AUS)</t>
   </si>
   <si>
-    <t>Jess Glynne (UK)</t>
-  </si>
-  <si>
     <t>Adam’s Wedding (CH)</t>
   </si>
   <si>
@@ -258,6 +255,126 @@
   </si>
   <si>
     <t>Artist</t>
+  </si>
+  <si>
+    <t>Casa Bacardi</t>
+  </si>
+  <si>
+    <t>Tom Hängs &amp; Friends</t>
+  </si>
+  <si>
+    <t>The Village</t>
+  </si>
+  <si>
+    <t>Acee</t>
+  </si>
+  <si>
+    <t>Irresponsible</t>
+  </si>
+  <si>
+    <t>Sam Madi</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Manuel Moreno</t>
+  </si>
+  <si>
+    <t>Nici Faerber</t>
+  </si>
+  <si>
+    <t>Equal</t>
+  </si>
+  <si>
+    <t>Dario La Mazza</t>
+  </si>
+  <si>
+    <t>P-Roc</t>
+  </si>
+  <si>
+    <t>Ronfa</t>
+  </si>
+  <si>
+    <t>Reiser</t>
+  </si>
+  <si>
+    <t>Nuts Cuts</t>
+  </si>
+  <si>
+    <t>Redshift</t>
+  </si>
+  <si>
+    <t>Kantarik</t>
+  </si>
+  <si>
+    <t>Redrum</t>
+  </si>
+  <si>
+    <t>Gro</t>
+  </si>
+  <si>
+    <t>Rolf Imhof</t>
+  </si>
+  <si>
+    <t>DJ Muri</t>
+  </si>
+  <si>
+    <t>Certified</t>
+  </si>
+  <si>
+    <t>Enten Crew Leon &amp; Juli</t>
+  </si>
+  <si>
+    <t>Juen &amp; Bach</t>
+  </si>
+  <si>
+    <t>I-Kim</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>DJ Soulsonic</t>
+  </si>
+  <si>
+    <t>Larcenist</t>
+  </si>
+  <si>
+    <t>Vinylist Sir Dancealot</t>
+  </si>
+  <si>
+    <t>Max Power</t>
+  </si>
+  <si>
+    <t>Oliver Aden und Luis Cruz</t>
+  </si>
+  <si>
+    <t>Doobious</t>
+  </si>
+  <si>
+    <t>Blood a Run Soundsystem</t>
+  </si>
+  <si>
+    <t>Sabb</t>
+  </si>
+  <si>
+    <t>Johnny Roxx</t>
+  </si>
+  <si>
+    <t>Smalltown Collective</t>
+  </si>
+  <si>
+    <t>Soame</t>
+  </si>
+  <si>
+    <t>Danitsa (CH)</t>
+  </si>
+  <si>
+    <t>DJ V-Stax</t>
+  </si>
+  <si>
+    <t>Luca Barletta und Oliver von Mentlen</t>
   </si>
 </sst>
 </file>
@@ -296,9 +413,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -344,8 +462,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="openairsg_lineup" displayName="openairsg_lineup" ref="A1:D62" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="openairsg_lineup" displayName="openairsg_lineup" ref="A1:D100" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D100"/>
   <tableColumns count="4">
     <tableColumn id="1" uniqueName="1" name="Tag" queryTableFieldId="1" dataDxfId="3"/>
     <tableColumn id="2" uniqueName="2" name="Zeit" queryTableFieldId="2" dataDxfId="2"/>
@@ -656,10 +774,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,890 +795,1411 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>72</v>
-      </c>
-      <c r="D1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.82291666666666663</v>
+      <c r="B2" s="3">
+        <v>0.70833333333333337</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.83333333333333337</v>
+      <c r="B3" s="3">
+        <v>0.75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.83333333333333337</v>
+      <c r="B4" s="3">
+        <v>0.82291666666666663</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.84375</v>
+      <c r="B5" s="3">
+        <v>0.83333333333333337</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.88541666666666663</v>
+      <c r="B6" s="3">
+        <v>0.83333333333333337</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.89583333333333337</v>
+      <c r="B7" s="3">
+        <v>0.83333333333333337</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.91666666666666663</v>
+      <c r="B8" s="3">
+        <v>0.84375</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.92708333333333337</v>
+      <c r="B9" s="3">
+        <v>0.88541666666666663</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.94791666666666663</v>
+      <c r="B10" s="3">
+        <v>0.89583333333333337</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.95833333333333337</v>
+      <c r="B11" s="3">
+        <v>0.91666666666666663</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1.0416666666666666E-2</v>
+        <v>0</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.91666666666666663</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1.0416666666666666E-2</v>
+        <v>0</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.92708333333333337</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.64583333333333337</v>
+        <v>0</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.94791666666666663</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.67708333333333337</v>
+        <v>0</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.95833333333333337</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.67708333333333337</v>
+        <v>0</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.95833333333333337</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
-        <v>0.67708333333333337</v>
+      <c r="B17" s="3">
+        <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2">
-        <v>0.71875</v>
+      <c r="B18" s="3">
+        <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="2">
-        <v>0.76041666666666663</v>
+      <c r="B19" s="3">
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="2">
-        <v>0.76041666666666663</v>
+      <c r="B20" s="3">
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="2">
-        <v>0.80208333333333337</v>
+      <c r="B21" s="3">
+        <v>6.25E-2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="2">
-        <v>0.84375</v>
+      <c r="B22" s="3">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="2">
-        <v>0.88541666666666663</v>
+      <c r="B23" s="3">
+        <v>0.45833333333333331</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="2">
-        <v>0.9375</v>
+      <c r="B24" s="3">
+        <v>0.58333333333333337</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="2">
-        <v>0.9375</v>
+      <c r="B25" s="3">
+        <v>0.58333333333333337</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="2">
-        <v>0.95833333333333337</v>
+      <c r="B26" s="3">
+        <v>0.64583333333333337</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="2">
-        <v>0.97916666666666663</v>
+      <c r="B27" s="3">
+        <v>0.66666666666666663</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="2">
-        <v>3.125E-2</v>
+        <v>15</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.67708333333333337</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0.10416666666666667</v>
+        <v>15</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.67708333333333337</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.67708333333333337</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0.53125</v>
+        <v>15</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.70833333333333337</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="2">
-        <v>0.57291666666666663</v>
+        <v>15</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.71875</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="2">
-        <v>0.61458333333333337</v>
+        <v>15</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.75</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0.61458333333333337</v>
+        <v>15</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.76041666666666663</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2">
-        <v>0.65625</v>
+        <v>15</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.76041666666666663</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="2">
-        <v>0.69791666666666663</v>
+        <v>15</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.80208333333333337</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="2">
-        <v>0.69791666666666663</v>
+        <v>15</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.83333333333333337</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0.73958333333333337</v>
+        <v>15</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.83333333333333337</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.84375</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0.78125</v>
+        <v>15</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.88541666666666663</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="2">
-        <v>0.78125</v>
+        <v>15</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.91666666666666663</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="2">
-        <v>0.82291666666666663</v>
+        <v>15</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.91666666666666663</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="2">
-        <v>0.86458333333333337</v>
+        <v>15</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.9375</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="2">
-        <v>0.91666666666666663</v>
+        <v>15</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.9375</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="2">
-        <v>0.91666666666666663</v>
+        <v>15</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.95833333333333337</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="2">
+        <v>15</v>
+      </c>
+      <c r="B46" s="3">
         <v>0.95833333333333337</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="2">
-        <v>0.95833333333333337</v>
+        <v>15</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0.97916666666666663</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="2">
-        <v>3.125E-2</v>
+        <v>33</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="2">
-        <v>4.1666666666666664E-2</v>
+        <v>33</v>
+      </c>
+      <c r="B49" s="3">
+        <v>3.125E-2</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="2">
-        <v>0.11458333333333333</v>
+        <v>33</v>
+      </c>
+      <c r="B50" s="3">
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="2">
-        <v>0.45833333333333331</v>
+        <v>33</v>
+      </c>
+      <c r="B51" s="3">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="2">
-        <v>0.45833333333333331</v>
+        <v>33</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.10416666666666667</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="2">
-        <v>0.46875</v>
+        <v>33</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0.45833333333333331</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="2">
+        <v>33</v>
+      </c>
+      <c r="B54" s="3">
         <v>0.5</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="2">
-        <v>0.54166666666666663</v>
+        <v>33</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0.53125</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="2">
-        <v>0.58333333333333337</v>
+        <v>33</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.57291666666666663</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="2">
+        <v>33</v>
+      </c>
+      <c r="B57" s="3">
         <v>0.58333333333333337</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="2">
-        <v>0.625</v>
+        <v>33</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0.58333333333333337</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="2">
-        <v>0.625</v>
+        <v>33</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0.61458333333333337</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="2">
-        <v>0.66666666666666663</v>
+        <v>33</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.61458333333333337</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" s="2">
-        <v>0.70833333333333337</v>
+        <v>33</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0.65625</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0.78125</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0.78125</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0.90625</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0.90625</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B80" s="3">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B83" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B100" s="3">
         <v>0.75</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I71" s="2"/>
+      <c r="D100" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="81" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;F</oddHeader>
-  </headerFooter>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
